--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9215.51</v>
+        <v>25076.86</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9215.51</v>
+        <v>6269.22</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9215.51</v>
+        <v>9579.030000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5580.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9917.030000000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,65 +439,88 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25076.86</v>
+        <v>9579.030000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8689.469999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6269.22</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9579.030000000001</v>
+        <v>5580.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5631.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5580.8</v>
+        <v>9917.030000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9585.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6269.22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5976.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9917.030000000001</v>
+        <v>25076.86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23906.34</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,65 +439,88 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23906.34</v>
+        <v>8689.469999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9060.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5976.59</v>
+        <v>5631.04</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5785.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8689.469999999999</v>
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5631.04</v>
+        <v>9585.83</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9497.780000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5976.59</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6085.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9585.83</v>
+        <v>23906.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24343.77</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -467,9 +467,7 @@
       <c r="B3" t="n">
         <v>5631.04</v>
       </c>
-      <c r="C3" t="n">
-        <v>5785.34</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,9 +478,7 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -507,7 +503,7 @@
         <v>5976.59</v>
       </c>
       <c r="C6" t="n">
-        <v>6085.94</v>
+        <v>9279.219999999999</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +516,7 @@
         <v>23906.34</v>
       </c>
       <c r="C7" t="n">
-        <v>24343.77</v>
+        <v>18558.43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8689.469999999999</v>
+        <v>8466.549999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9060.65</v>
+        <v>9662.209999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>9644.52</v>
+        <v>8760.540000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>10128.07</v>
+        <v>9490.83</v>
       </c>
       <c r="F2" t="n">
-        <v>9141.290000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9606.25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9931.469999999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9839.059999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9733.700000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9164.969999999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8805.42</v>
-      </c>
-      <c r="M2" t="n">
-        <v>8466.549999999999</v>
+        <v>9533.360000000001</v>
       </c>
     </row>
     <row r="3">
@@ -545,38 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5631.04</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>5919.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5789.1</v>
+      </c>
       <c r="D3" t="n">
-        <v>5772.28</v>
+        <v>5368.1</v>
       </c>
       <c r="E3" t="n">
-        <v>5833.83</v>
+        <v>5864.26</v>
       </c>
       <c r="F3" t="n">
-        <v>6144.7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5525.91</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5537.54</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5482.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5693.73</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6282.56</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6191.57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5919.5</v>
+        <v>5813.51</v>
       </c>
     </row>
     <row r="4">
@@ -588,7 +513,9 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
@@ -596,139 +523,51 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9585.83</v>
+        <v>4795.35</v>
       </c>
       <c r="C5" t="n">
-        <v>9497.780000000001</v>
+        <v>5150.44</v>
       </c>
       <c r="D5" t="n">
-        <v>9539.559999999999</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>4709.55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5118.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5115.62</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5976.59</v>
+        <v>14386.05</v>
       </c>
       <c r="C6" t="n">
-        <v>9279.219999999999</v>
+        <v>15451.31</v>
       </c>
       <c r="D6" t="n">
-        <v>6239.09</v>
+        <v>14128.64</v>
       </c>
       <c r="E6" t="n">
-        <v>5320.63</v>
+        <v>15355.09</v>
       </c>
       <c r="F6" t="n">
-        <v>5095.33</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5044.05</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5156.34</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5107.29</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5142.48</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5149.18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4999</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4795.35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>23906.34</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18558.43</v>
-      </c>
-      <c r="D7" t="n">
-        <v>24956.36</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15961.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15285.99</v>
-      </c>
-      <c r="G7" t="n">
-        <v>15132.16</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15469.01</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15321.86</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15427.43</v>
-      </c>
-      <c r="K7" t="n">
-        <v>15447.53</v>
-      </c>
-      <c r="L7" t="n">
-        <v>14996.99</v>
-      </c>
-      <c r="M7" t="n">
-        <v>14386.05</v>
+        <v>15346.87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -467,19 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>8689.469999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9060.65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9644.52</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10128.07</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9141.290000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9606.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9931.469999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9839.059999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9733.700000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9164.969999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8805.42</v>
+      </c>
+      <c r="M2" t="n">
         <v>8466.549999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9662.209999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8760.540000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9490.83</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9533.360000000001</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +545,38 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>5631.04</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>5772.28</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5833.83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6144.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5525.91</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5537.54</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5482.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5693.73</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6282.56</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6191.57</v>
+      </c>
+      <c r="M3" t="n">
         <v>5919.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5789.1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5368.1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5864.26</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5813.51</v>
       </c>
     </row>
     <row r="4">
@@ -513,9 +588,7 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>0</v>
       </c>
@@ -523,51 +596,139 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4795.35</v>
+        <v>9585.83</v>
       </c>
       <c r="C5" t="n">
-        <v>5150.44</v>
+        <v>9497.780000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>4709.55</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5118.36</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5115.62</v>
-      </c>
+        <v>9539.559999999999</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5976.59</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9279.219999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6239.09</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5320.63</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5095.33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5044.05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5156.34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5107.29</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5142.48</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5149.18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4999</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4795.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
+        <v>23906.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18558.43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24956.36</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15961.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15285.99</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15132.16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15469.01</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15321.86</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15427.43</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15447.53</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14996.99</v>
+      </c>
+      <c r="M7" t="n">
         <v>14386.05</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15451.31</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14128.64</v>
-      </c>
-      <c r="E6" t="n">
-        <v>15355.09</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15346.87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,127 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>09-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +567,79 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8689.469999999999</v>
+        <v>8466.549999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9060.65</v>
+        <v>9662.209999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>9644.52</v>
+        <v>8760.540000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>10128.07</v>
+        <v>9490.83</v>
       </c>
       <c r="F2" t="n">
-        <v>9141.290000000001</v>
+        <v>9533.360000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>9606.25</v>
+        <v>9308.700000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>9931.469999999999</v>
+        <v>9398.450000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>9839.059999999999</v>
+        <v>9720.049999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>9733.700000000001</v>
+        <v>8154.71</v>
       </c>
       <c r="K2" t="n">
-        <v>9164.969999999999</v>
+        <v>8698.25</v>
       </c>
       <c r="L2" t="n">
-        <v>8805.42</v>
+        <v>9747.33</v>
       </c>
       <c r="M2" t="n">
-        <v>8466.549999999999</v>
+        <v>10290.44</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8245.01</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8584.790000000001</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9047.540000000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9083.68</v>
+      </c>
+      <c r="R2" t="n">
+        <v>10287.13</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8885.290000000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>9073.780000000001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9631.74</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8264.040000000001</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9067.25</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10550.39</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9405.77</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8446.15</v>
       </c>
     </row>
     <row r="3">
@@ -545,38 +649,79 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5631.04</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>5919.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5789.1</v>
+      </c>
       <c r="D3" t="n">
-        <v>5772.28</v>
+        <v>5368.1</v>
       </c>
       <c r="E3" t="n">
-        <v>5833.83</v>
+        <v>5864.26</v>
       </c>
       <c r="F3" t="n">
-        <v>6144.7</v>
+        <v>5813.51</v>
       </c>
       <c r="G3" t="n">
-        <v>5525.91</v>
+        <v>5789.07</v>
       </c>
       <c r="H3" t="n">
-        <v>5537.54</v>
+        <v>5711.02</v>
       </c>
       <c r="I3" t="n">
-        <v>5482.8</v>
+        <v>5830.39</v>
       </c>
       <c r="J3" t="n">
-        <v>5693.73</v>
+        <v>5238.17</v>
       </c>
       <c r="K3" t="n">
-        <v>6282.56</v>
+        <v>6186.41</v>
       </c>
       <c r="L3" t="n">
-        <v>6191.57</v>
+        <v>5426.8</v>
       </c>
       <c r="M3" t="n">
-        <v>5919.5</v>
+        <v>6126.39</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5925.71</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6287.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6000.41</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5807.04</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5659.96</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6058.61</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6139.31</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5439.82</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6192.46</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5488.37</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5516.23</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5743.17</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5465.08</v>
       </c>
     </row>
     <row r="4">
@@ -588,7 +733,9 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
@@ -617,118 +764,210 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9585.83</v>
+        <v>4795.35</v>
       </c>
       <c r="C5" t="n">
-        <v>9497.780000000001</v>
+        <v>5150.44</v>
       </c>
       <c r="D5" t="n">
-        <v>9539.559999999999</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>4709.55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5118.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5115.62</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5032.59</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5036.49</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5183.48</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4464.29</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4961.55</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5058.04</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5472.28</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4723.57</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4957.41</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5015.98</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4963.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5315.7</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4981.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5071.03</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5023.85</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4818.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4851.87</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5355.54</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5049.65</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4637.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5976.59</v>
+        <v>14386.05</v>
       </c>
       <c r="C6" t="n">
-        <v>9279.219999999999</v>
+        <v>15451.31</v>
       </c>
       <c r="D6" t="n">
-        <v>6239.09</v>
+        <v>14128.64</v>
       </c>
       <c r="E6" t="n">
-        <v>5320.63</v>
+        <v>15355.09</v>
       </c>
       <c r="F6" t="n">
-        <v>5095.33</v>
+        <v>15346.87</v>
       </c>
       <c r="G6" t="n">
-        <v>5044.05</v>
+        <v>15097.77</v>
       </c>
       <c r="H6" t="n">
-        <v>5156.34</v>
+        <v>15109.47</v>
       </c>
       <c r="I6" t="n">
-        <v>5107.29</v>
+        <v>15550.44</v>
       </c>
       <c r="J6" t="n">
-        <v>5142.48</v>
+        <v>13392.88</v>
       </c>
       <c r="K6" t="n">
-        <v>5149.18</v>
+        <v>14884.66</v>
       </c>
       <c r="L6" t="n">
-        <v>4999</v>
+        <v>15174.13</v>
       </c>
       <c r="M6" t="n">
-        <v>4795.35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>23906.34</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18558.43</v>
-      </c>
-      <c r="D7" t="n">
-        <v>24956.36</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15961.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15285.99</v>
-      </c>
-      <c r="G7" t="n">
-        <v>15132.16</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15469.01</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15321.86</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15427.43</v>
-      </c>
-      <c r="K7" t="n">
-        <v>15447.53</v>
-      </c>
-      <c r="L7" t="n">
-        <v>14996.99</v>
-      </c>
-      <c r="M7" t="n">
-        <v>14386.05</v>
+        <v>16416.83</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14170.72</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14872.23</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15047.95</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>14890.72</v>
+      </c>
+      <c r="R6" t="n">
+        <v>15947.09</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14943.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>15213.09</v>
+      </c>
+      <c r="U6" t="n">
+        <v>15071.56</v>
+      </c>
+      <c r="V6" t="n">
+        <v>14456.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>14555.62</v>
+      </c>
+      <c r="X6" t="n">
+        <v>16066.62</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15148.94</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13911.23</v>
       </c>
     </row>
   </sheetData>
